--- a/Jasper Files/data/addPod/addPod-50pod-20pol.xlsx
+++ b/Jasper Files/data/addPod/addPod-50pod-20pol.xlsx
@@ -516,28 +516,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01959890499711037</v>
+        <v>0.006752791989129037</v>
       </c>
       <c r="C2">
-        <v>111849</v>
+        <v>103284</v>
       </c>
       <c r="D2">
-        <v>181353</v>
+        <v>171068</v>
       </c>
       <c r="E2">
-        <v>69504</v>
+        <v>67784</v>
       </c>
       <c r="F2">
-        <v>0.002433553338050842</v>
+        <v>0.003150041971821338</v>
       </c>
       <c r="G2">
-        <v>15675</v>
+        <v>17585</v>
       </c>
       <c r="H2">
-        <v>34667</v>
+        <v>36286</v>
       </c>
       <c r="I2">
-        <v>18992</v>
+        <v>18701</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -545,25 +545,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01608068495988846</v>
+        <v>0.008402140985708684</v>
       </c>
       <c r="C3">
-        <v>113790</v>
+        <v>97132</v>
       </c>
       <c r="D3">
-        <v>183270</v>
+        <v>163876</v>
       </c>
       <c r="E3">
-        <v>69480</v>
+        <v>66744</v>
       </c>
       <c r="F3">
-        <v>0.003374788910150528</v>
+        <v>0.002447313978336751</v>
       </c>
       <c r="G3">
-        <v>15811</v>
+        <v>16105</v>
       </c>
       <c r="H3">
-        <v>34803</v>
+        <v>35097</v>
       </c>
       <c r="I3">
         <v>18992</v>
@@ -574,28 +574,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01420586556196213</v>
+        <v>0.023335071047768</v>
       </c>
       <c r="C4">
-        <v>113664</v>
+        <v>172178</v>
       </c>
       <c r="D4">
-        <v>182760</v>
+        <v>254350</v>
       </c>
       <c r="E4">
-        <v>69096</v>
+        <v>82172</v>
       </c>
       <c r="F4">
-        <v>0.002456393092870712</v>
+        <v>0.002807718992698938</v>
       </c>
       <c r="G4">
-        <v>15555</v>
+        <v>16393</v>
       </c>
       <c r="H4">
-        <v>34547</v>
+        <v>35241</v>
       </c>
       <c r="I4">
-        <v>18992</v>
+        <v>18848</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -603,25 +603,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01001451164484024</v>
+        <v>0.01081682700896636</v>
       </c>
       <c r="C5">
-        <v>111056</v>
+        <v>106076</v>
       </c>
       <c r="D5">
-        <v>179832</v>
+        <v>175220</v>
       </c>
       <c r="E5">
-        <v>68776</v>
+        <v>69144</v>
       </c>
       <c r="F5">
-        <v>0.003647956997156143</v>
+        <v>0.003549309039954096</v>
       </c>
       <c r="G5">
-        <v>15756</v>
+        <v>16370</v>
       </c>
       <c r="H5">
-        <v>34748</v>
+        <v>35362</v>
       </c>
       <c r="I5">
         <v>18992</v>
@@ -632,25 +632,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0136762410402298</v>
+        <v>0.01524450600845739</v>
       </c>
       <c r="C6">
-        <v>106106</v>
+        <v>94242</v>
       </c>
       <c r="D6">
-        <v>174794</v>
+        <v>171430</v>
       </c>
       <c r="E6">
-        <v>68688</v>
+        <v>77188</v>
       </c>
       <c r="F6">
-        <v>0.002805843949317932</v>
+        <v>0.002885026973672211</v>
       </c>
       <c r="G6">
-        <v>15619</v>
+        <v>16457</v>
       </c>
       <c r="H6">
-        <v>34611</v>
+        <v>35449</v>
       </c>
       <c r="I6">
         <v>18992</v>
@@ -661,28 +661,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01024715229868889</v>
+        <v>0.01232627901481465</v>
       </c>
       <c r="C7">
-        <v>113379</v>
+        <v>104240</v>
       </c>
       <c r="D7">
-        <v>182123</v>
+        <v>172904</v>
       </c>
       <c r="E7">
-        <v>68744</v>
+        <v>68664</v>
       </c>
       <c r="F7">
-        <v>0.002580597996711731</v>
+        <v>0.00428653002018109</v>
       </c>
       <c r="G7">
-        <v>15875</v>
+        <v>16137</v>
       </c>
       <c r="H7">
-        <v>34721</v>
+        <v>35129</v>
       </c>
       <c r="I7">
-        <v>18846</v>
+        <v>18992</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -690,28 +690,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01348113641142845</v>
+        <v>0.009837631019763649</v>
       </c>
       <c r="C8">
-        <v>109525</v>
+        <v>96216</v>
       </c>
       <c r="D8">
-        <v>178021</v>
+        <v>162272</v>
       </c>
       <c r="E8">
-        <v>68496</v>
+        <v>66056</v>
       </c>
       <c r="F8">
-        <v>0.002458743751049042</v>
+        <v>0.002530529978685081</v>
       </c>
       <c r="G8">
-        <v>15747</v>
+        <v>16425</v>
       </c>
       <c r="H8">
-        <v>34595</v>
+        <v>35417</v>
       </c>
       <c r="I8">
-        <v>18848</v>
+        <v>18992</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -719,25 +719,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0104997530579567</v>
+        <v>0.006873654027003795</v>
       </c>
       <c r="C9">
-        <v>109490</v>
+        <v>97338</v>
       </c>
       <c r="D9">
-        <v>178402</v>
+        <v>164866</v>
       </c>
       <c r="E9">
-        <v>68912</v>
+        <v>67528</v>
       </c>
       <c r="F9">
-        <v>0.002671495079994202</v>
+        <v>0.004399855970405042</v>
       </c>
       <c r="G9">
-        <v>15605</v>
+        <v>16443</v>
       </c>
       <c r="H9">
-        <v>34597</v>
+        <v>35435</v>
       </c>
       <c r="I9">
         <v>18992</v>
@@ -748,25 +748,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01740944385528564</v>
+        <v>0.01367815397679806</v>
       </c>
       <c r="C10">
-        <v>110222</v>
+        <v>95792</v>
       </c>
       <c r="D10">
-        <v>178982</v>
+        <v>161880</v>
       </c>
       <c r="E10">
-        <v>68760</v>
+        <v>66088</v>
       </c>
       <c r="F10">
-        <v>0.002633016556501389</v>
+        <v>0.002681045036297292</v>
       </c>
       <c r="G10">
-        <v>16067</v>
+        <v>16169</v>
       </c>
       <c r="H10">
-        <v>35059</v>
+        <v>35161</v>
       </c>
       <c r="I10">
         <v>18992</v>
@@ -777,28 +777,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.02445103228092194</v>
+        <v>0.006364791945088655</v>
       </c>
       <c r="C11">
-        <v>248615</v>
+        <v>94810</v>
       </c>
       <c r="D11">
-        <v>276455</v>
+        <v>160914</v>
       </c>
       <c r="E11">
-        <v>27840</v>
+        <v>66104</v>
       </c>
       <c r="F11">
-        <v>0.002663474529981613</v>
+        <v>0.002298184961546212</v>
       </c>
       <c r="G11">
-        <v>16013</v>
+        <v>16339</v>
       </c>
       <c r="H11">
-        <v>34859</v>
+        <v>35331</v>
       </c>
       <c r="I11">
-        <v>18846</v>
+        <v>18992</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -806,25 +806,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01599271968007088</v>
+        <v>0.01341128902276978</v>
       </c>
       <c r="C12">
-        <v>108849</v>
+        <v>101999</v>
       </c>
       <c r="D12">
-        <v>177465</v>
+        <v>170479</v>
       </c>
       <c r="E12">
-        <v>68616</v>
+        <v>68480</v>
       </c>
       <c r="F12">
-        <v>0.002616342157125473</v>
+        <v>0.002896357036661357</v>
       </c>
       <c r="G12">
-        <v>15491</v>
+        <v>16681</v>
       </c>
       <c r="H12">
-        <v>34483</v>
+        <v>35673</v>
       </c>
       <c r="I12">
         <v>18992</v>
@@ -835,28 +835,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01357481628656387</v>
+        <v>0.009630608023144305</v>
       </c>
       <c r="C13">
-        <v>110225</v>
+        <v>102843</v>
       </c>
       <c r="D13">
-        <v>179065</v>
+        <v>171499</v>
       </c>
       <c r="E13">
-        <v>68840</v>
+        <v>68656</v>
       </c>
       <c r="F13">
-        <v>0.002815660089254379</v>
+        <v>0.002985025988891721</v>
       </c>
       <c r="G13">
-        <v>15937</v>
+        <v>17127</v>
       </c>
       <c r="H13">
-        <v>34929</v>
+        <v>35974</v>
       </c>
       <c r="I13">
-        <v>18992</v>
+        <v>18847</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -864,28 +864,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.01106249168515205</v>
+        <v>0.01038897701073438</v>
       </c>
       <c r="C14">
-        <v>111218</v>
+        <v>94932</v>
       </c>
       <c r="D14">
-        <v>179138</v>
+        <v>161012</v>
       </c>
       <c r="E14">
-        <v>67920</v>
+        <v>66080</v>
       </c>
       <c r="F14">
-        <v>0.003122858703136444</v>
+        <v>0.003031147003639489</v>
       </c>
       <c r="G14">
-        <v>15523</v>
+        <v>16297</v>
       </c>
       <c r="H14">
-        <v>34367</v>
+        <v>35289</v>
       </c>
       <c r="I14">
-        <v>18844</v>
+        <v>18992</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -893,25 +893,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.015822634100914</v>
+        <v>0.008570147037971765</v>
       </c>
       <c r="C15">
-        <v>108810</v>
+        <v>104114</v>
       </c>
       <c r="D15">
-        <v>177546</v>
+        <v>173234</v>
       </c>
       <c r="E15">
-        <v>68736</v>
+        <v>69120</v>
       </c>
       <c r="F15">
-        <v>0.003579746931791306</v>
+        <v>0.009511916025076061</v>
       </c>
       <c r="G15">
-        <v>15683</v>
+        <v>16553</v>
       </c>
       <c r="H15">
-        <v>34675</v>
+        <v>35545</v>
       </c>
       <c r="I15">
         <v>18992</v>
@@ -922,28 +922,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01662871241569519</v>
+        <v>0.007302668003831059</v>
       </c>
       <c r="C16">
-        <v>155156</v>
+        <v>97776</v>
       </c>
       <c r="D16">
-        <v>216616</v>
+        <v>163904</v>
       </c>
       <c r="E16">
-        <v>61460</v>
+        <v>66128</v>
       </c>
       <c r="F16">
-        <v>0.002508040517568588</v>
+        <v>0.002880009997170419</v>
       </c>
       <c r="G16">
-        <v>15715</v>
+        <v>16745</v>
       </c>
       <c r="H16">
-        <v>34559</v>
+        <v>35590</v>
       </c>
       <c r="I16">
-        <v>18844</v>
+        <v>18845</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -951,25 +951,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.02522767335176468</v>
+        <v>0.01819807500578463</v>
       </c>
       <c r="C17">
-        <v>114820</v>
+        <v>99191</v>
       </c>
       <c r="D17">
-        <v>183472</v>
+        <v>166903</v>
       </c>
       <c r="E17">
-        <v>68652</v>
+        <v>67712</v>
       </c>
       <c r="F17">
-        <v>0.003431398421525955</v>
+        <v>0.004845616000238806</v>
       </c>
       <c r="G17">
-        <v>15683</v>
+        <v>16169</v>
       </c>
       <c r="H17">
-        <v>34675</v>
+        <v>35161</v>
       </c>
       <c r="I17">
         <v>18992</v>
@@ -980,28 +980,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01110456511378288</v>
+        <v>0.006330314034130424</v>
       </c>
       <c r="C18">
-        <v>109784</v>
+        <v>93393</v>
       </c>
       <c r="D18">
-        <v>178328</v>
+        <v>159185</v>
       </c>
       <c r="E18">
-        <v>68544</v>
+        <v>65792</v>
       </c>
       <c r="F18">
-        <v>0.002782478928565979</v>
+        <v>0.002576870028860867</v>
       </c>
       <c r="G18">
-        <v>15555</v>
+        <v>15849</v>
       </c>
       <c r="H18">
-        <v>34400</v>
+        <v>34693</v>
       </c>
       <c r="I18">
-        <v>18845</v>
+        <v>18844</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1009,25 +1009,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01190308108925819</v>
+        <v>0.01115734002087265</v>
       </c>
       <c r="C19">
-        <v>108660</v>
+        <v>95493</v>
       </c>
       <c r="D19">
-        <v>175916</v>
+        <v>161509</v>
       </c>
       <c r="E19">
-        <v>67256</v>
+        <v>66016</v>
       </c>
       <c r="F19">
-        <v>0.002601798623800278</v>
+        <v>0.002586235990747809</v>
       </c>
       <c r="G19">
-        <v>15971</v>
+        <v>16393</v>
       </c>
       <c r="H19">
-        <v>34963</v>
+        <v>35385</v>
       </c>
       <c r="I19">
         <v>18992</v>
@@ -1038,25 +1038,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01023755967617035</v>
+        <v>0.006666022003628314</v>
       </c>
       <c r="C20">
-        <v>109386</v>
+        <v>98372</v>
       </c>
       <c r="D20">
-        <v>178714</v>
+        <v>165340</v>
       </c>
       <c r="E20">
-        <v>69328</v>
+        <v>66968</v>
       </c>
       <c r="F20">
-        <v>0.004212059080600739</v>
+        <v>0.002850222983397543</v>
       </c>
       <c r="G20">
-        <v>15683</v>
+        <v>16105</v>
       </c>
       <c r="H20">
-        <v>34675</v>
+        <v>35097</v>
       </c>
       <c r="I20">
         <v>18992</v>
@@ -1067,25 +1067,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0106487087905407</v>
+        <v>0.01089828403200954</v>
       </c>
       <c r="C21">
-        <v>107066</v>
+        <v>95212</v>
       </c>
       <c r="D21">
-        <v>176642</v>
+        <v>161324</v>
       </c>
       <c r="E21">
-        <v>69576</v>
+        <v>66112</v>
       </c>
       <c r="F21">
-        <v>0.002455767244100571</v>
+        <v>0.00293007300933823</v>
       </c>
       <c r="G21">
-        <v>15523</v>
+        <v>16105</v>
       </c>
       <c r="H21">
-        <v>34515</v>
+        <v>35097</v>
       </c>
       <c r="I21">
         <v>18992</v>
@@ -1096,28 +1096,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.01221828162670135</v>
+        <v>0.01395084301475435</v>
       </c>
       <c r="C22">
-        <v>114491</v>
+        <v>99740</v>
       </c>
       <c r="D22">
-        <v>184027</v>
+        <v>167892</v>
       </c>
       <c r="E22">
-        <v>69536</v>
+        <v>68152</v>
       </c>
       <c r="F22">
-        <v>0.002749260514974594</v>
+        <v>0.002664870000444353</v>
       </c>
       <c r="G22">
-        <v>16022</v>
+        <v>16225</v>
       </c>
       <c r="H22">
-        <v>35014</v>
+        <v>35193</v>
       </c>
       <c r="I22">
-        <v>18992</v>
+        <v>18968</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.013470359146595</v>
+        <v>0.01024246698943898</v>
       </c>
       <c r="C23">
-        <v>113195</v>
+        <v>102983</v>
       </c>
       <c r="D23">
-        <v>181579</v>
+        <v>172127</v>
       </c>
       <c r="E23">
-        <v>68384</v>
+        <v>69144</v>
       </c>
       <c r="F23">
-        <v>0.002763547003269196</v>
+        <v>0.002785876975394785</v>
       </c>
       <c r="G23">
-        <v>15779</v>
+        <v>16668</v>
       </c>
       <c r="H23">
-        <v>34626</v>
+        <v>35513</v>
       </c>
       <c r="I23">
-        <v>18847</v>
+        <v>18845</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.01720718294382095</v>
+        <v>0.01379830698715523</v>
       </c>
       <c r="C24">
-        <v>111554</v>
+        <v>99202</v>
       </c>
       <c r="D24">
-        <v>180130</v>
+        <v>167106</v>
       </c>
       <c r="E24">
-        <v>68576</v>
+        <v>67904</v>
       </c>
       <c r="F24">
-        <v>0.002619307488203049</v>
+        <v>0.002504120988305658</v>
       </c>
       <c r="G24">
-        <v>15875</v>
+        <v>15913</v>
       </c>
       <c r="H24">
-        <v>34722</v>
+        <v>34905</v>
       </c>
       <c r="I24">
-        <v>18847</v>
+        <v>18992</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1183,25 +1183,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.01188220456242561</v>
+        <v>0.01204380998387933</v>
       </c>
       <c r="C25">
-        <v>109108</v>
+        <v>105075</v>
       </c>
       <c r="D25">
-        <v>177852</v>
+        <v>174139</v>
       </c>
       <c r="E25">
-        <v>68744</v>
+        <v>69064</v>
       </c>
       <c r="F25">
-        <v>0.004331033676862717</v>
+        <v>0.002808379009366035</v>
       </c>
       <c r="G25">
-        <v>15811</v>
+        <v>16297</v>
       </c>
       <c r="H25">
-        <v>34803</v>
+        <v>35289</v>
       </c>
       <c r="I25">
         <v>18992</v>
@@ -1212,28 +1212,28 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.01136799901723862</v>
+        <v>0.009532688010949641</v>
       </c>
       <c r="C26">
-        <v>113203</v>
+        <v>101327</v>
       </c>
       <c r="D26">
-        <v>181851</v>
+        <v>169335</v>
       </c>
       <c r="E26">
-        <v>68648</v>
+        <v>68008</v>
       </c>
       <c r="F26">
-        <v>0.006099220365285873</v>
+        <v>0.002641867962665856</v>
       </c>
       <c r="G26">
-        <v>15267</v>
+        <v>16521</v>
       </c>
       <c r="H26">
-        <v>34259</v>
+        <v>35366</v>
       </c>
       <c r="I26">
-        <v>18992</v>
+        <v>18845</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1241,25 +1241,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.01091857999563217</v>
+        <v>0.01085620303638279</v>
       </c>
       <c r="C27">
-        <v>105898</v>
+        <v>101013</v>
       </c>
       <c r="D27">
-        <v>175186</v>
+        <v>169077</v>
       </c>
       <c r="E27">
-        <v>69288</v>
+        <v>68064</v>
       </c>
       <c r="F27">
-        <v>0.00416923314332962</v>
+        <v>0.002560246968641877</v>
       </c>
       <c r="G27">
-        <v>15715</v>
+        <v>16553</v>
       </c>
       <c r="H27">
-        <v>34707</v>
+        <v>35545</v>
       </c>
       <c r="I27">
         <v>18992</v>
@@ -1270,25 +1270,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.01357234269380569</v>
+        <v>0.006429796980228275</v>
       </c>
       <c r="C28">
-        <v>113410</v>
+        <v>95880</v>
       </c>
       <c r="D28">
-        <v>182594</v>
+        <v>162312</v>
       </c>
       <c r="E28">
-        <v>69184</v>
+        <v>66432</v>
       </c>
       <c r="F28">
-        <v>0.002780281007289886</v>
+        <v>0.002802770002745092</v>
       </c>
       <c r="G28">
-        <v>15907</v>
+        <v>16137</v>
       </c>
       <c r="H28">
-        <v>34899</v>
+        <v>35129</v>
       </c>
       <c r="I28">
         <v>18992</v>
@@ -1299,28 +1299,28 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.01827384904026985</v>
+        <v>0.00970692903501913</v>
       </c>
       <c r="C29">
-        <v>112911</v>
+        <v>98625</v>
       </c>
       <c r="D29">
-        <v>181927</v>
+        <v>165337</v>
       </c>
       <c r="E29">
-        <v>69016</v>
+        <v>66712</v>
       </c>
       <c r="F29">
-        <v>0.00346863642334938</v>
+        <v>0.003437203005887568</v>
       </c>
       <c r="G29">
-        <v>15555</v>
+        <v>16521</v>
       </c>
       <c r="H29">
-        <v>34547</v>
+        <v>35368</v>
       </c>
       <c r="I29">
-        <v>18992</v>
+        <v>18847</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1328,25 +1328,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.01619560644030571</v>
+        <v>0.01102184603223577</v>
       </c>
       <c r="C30">
-        <v>109227</v>
+        <v>98463</v>
       </c>
       <c r="D30">
-        <v>178027</v>
+        <v>165071</v>
       </c>
       <c r="E30">
-        <v>68800</v>
+        <v>66608</v>
       </c>
       <c r="F30">
-        <v>0.002719957381486893</v>
+        <v>0.002905784989707172</v>
       </c>
       <c r="G30">
-        <v>15267</v>
+        <v>16585</v>
       </c>
       <c r="H30">
-        <v>34259</v>
+        <v>35577</v>
       </c>
       <c r="I30">
         <v>18992</v>
@@ -1357,28 +1357,28 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.01107083633542061</v>
+        <v>0.01020289905136451</v>
       </c>
       <c r="C31">
-        <v>109610</v>
+        <v>96641</v>
       </c>
       <c r="D31">
-        <v>178722</v>
+        <v>162889</v>
       </c>
       <c r="E31">
-        <v>69112</v>
+        <v>66248</v>
       </c>
       <c r="F31">
-        <v>0.002694807946681976</v>
+        <v>0.002694163995329291</v>
       </c>
       <c r="G31">
-        <v>15811</v>
+        <v>16009</v>
       </c>
       <c r="H31">
-        <v>34803</v>
+        <v>34855</v>
       </c>
       <c r="I31">
-        <v>18992</v>
+        <v>18846</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1386,25 +1386,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0206393226981163</v>
+        <v>0.006951012008357793</v>
       </c>
       <c r="C32">
-        <v>236519</v>
+        <v>99984</v>
       </c>
       <c r="D32">
-        <v>306855</v>
+        <v>167672</v>
       </c>
       <c r="E32">
-        <v>70336</v>
+        <v>67688</v>
       </c>
       <c r="F32">
-        <v>0.00256660208106041</v>
+        <v>0.003066000004764646</v>
       </c>
       <c r="G32">
-        <v>15395</v>
+        <v>15881</v>
       </c>
       <c r="H32">
-        <v>34387</v>
+        <v>34873</v>
       </c>
       <c r="I32">
         <v>18992</v>
@@ -1415,28 +1415,28 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.03395315632224083</v>
+        <v>0.009969057980924845</v>
       </c>
       <c r="C33">
-        <v>214935</v>
+        <v>101596</v>
       </c>
       <c r="D33">
-        <v>289199</v>
+        <v>169668</v>
       </c>
       <c r="E33">
-        <v>74264</v>
+        <v>68072</v>
       </c>
       <c r="F33">
-        <v>0.00356491282582283</v>
+        <v>0.002872841025236994</v>
       </c>
       <c r="G33">
-        <v>16067</v>
+        <v>16321</v>
       </c>
       <c r="H33">
-        <v>34911</v>
+        <v>35289</v>
       </c>
       <c r="I33">
-        <v>18844</v>
+        <v>18968</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1444,25 +1444,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.01885008439421654</v>
+        <v>0.00688653503311798</v>
       </c>
       <c r="C34">
-        <v>114737</v>
+        <v>102816</v>
       </c>
       <c r="D34">
-        <v>183841</v>
+        <v>170488</v>
       </c>
       <c r="E34">
-        <v>69104</v>
+        <v>67672</v>
       </c>
       <c r="F34">
-        <v>0.007651321589946747</v>
+        <v>0.002842350979335606</v>
       </c>
       <c r="G34">
-        <v>15715</v>
+        <v>16393</v>
       </c>
       <c r="H34">
-        <v>34707</v>
+        <v>35385</v>
       </c>
       <c r="I34">
         <v>18992</v>
@@ -1473,28 +1473,28 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.01804262772202492</v>
+        <v>0.007933498010970652</v>
       </c>
       <c r="C35">
-        <v>112432</v>
+        <v>99415</v>
       </c>
       <c r="D35">
-        <v>181208</v>
+        <v>167183</v>
       </c>
       <c r="E35">
-        <v>68776</v>
+        <v>67768</v>
       </c>
       <c r="F35">
-        <v>0.003304436802864075</v>
+        <v>0.002464870049152523</v>
       </c>
       <c r="G35">
-        <v>15907</v>
+        <v>15689</v>
       </c>
       <c r="H35">
-        <v>34754</v>
+        <v>34681</v>
       </c>
       <c r="I35">
-        <v>18847</v>
+        <v>18992</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.01255885139107704</v>
+        <v>0.01183509599650279</v>
       </c>
       <c r="C36">
-        <v>106994</v>
+        <v>100287</v>
       </c>
       <c r="D36">
-        <v>176362</v>
+        <v>168063</v>
       </c>
       <c r="E36">
-        <v>69368</v>
+        <v>67776</v>
       </c>
       <c r="F36">
-        <v>0.002695988863706589</v>
+        <v>0.005882560973986983</v>
       </c>
       <c r="G36">
-        <v>15555</v>
+        <v>16073</v>
       </c>
       <c r="H36">
-        <v>34547</v>
+        <v>34919</v>
       </c>
       <c r="I36">
-        <v>18992</v>
+        <v>18846</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1531,25 +1531,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.01253745704889297</v>
+        <v>0.01099117001285776</v>
       </c>
       <c r="C37">
-        <v>110366</v>
+        <v>100908</v>
       </c>
       <c r="D37">
-        <v>179142</v>
+        <v>169076</v>
       </c>
       <c r="E37">
-        <v>68776</v>
+        <v>68168</v>
       </c>
       <c r="F37">
-        <v>0.00284186378121376</v>
+        <v>0.002956942946184427</v>
       </c>
       <c r="G37">
-        <v>15683</v>
+        <v>16361</v>
       </c>
       <c r="H37">
-        <v>34675</v>
+        <v>35353</v>
       </c>
       <c r="I37">
         <v>18992</v>
@@ -1560,28 +1560,28 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.01624758541584015</v>
+        <v>0.01409413904184476</v>
       </c>
       <c r="C38">
-        <v>108670</v>
+        <v>100871</v>
       </c>
       <c r="D38">
-        <v>177510</v>
+        <v>168759</v>
       </c>
       <c r="E38">
-        <v>68840</v>
+        <v>67888</v>
       </c>
       <c r="F38">
-        <v>0.002544380724430084</v>
+        <v>0.005409737990703434</v>
       </c>
       <c r="G38">
-        <v>15587</v>
+        <v>16329</v>
       </c>
       <c r="H38">
-        <v>34434</v>
+        <v>35174</v>
       </c>
       <c r="I38">
-        <v>18847</v>
+        <v>18845</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.0134701281785965</v>
+        <v>0.009246226050890982</v>
       </c>
       <c r="C39">
-        <v>110263</v>
+        <v>97630</v>
       </c>
       <c r="D39">
-        <v>179447</v>
+        <v>164326</v>
       </c>
       <c r="E39">
-        <v>69184</v>
+        <v>66696</v>
       </c>
       <c r="F39">
-        <v>0.002556107938289642</v>
+        <v>0.004474210960324854</v>
       </c>
       <c r="G39">
-        <v>15523</v>
+        <v>16489</v>
       </c>
       <c r="H39">
-        <v>34515</v>
+        <v>35481</v>
       </c>
       <c r="I39">
         <v>18992</v>
@@ -1618,28 +1618,28 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.01076947525143623</v>
+        <v>0.03726090799318627</v>
       </c>
       <c r="C40">
-        <v>107130</v>
+        <v>120477</v>
       </c>
       <c r="D40">
-        <v>175426</v>
+        <v>189037</v>
       </c>
       <c r="E40">
-        <v>68296</v>
+        <v>68560</v>
       </c>
       <c r="F40">
-        <v>0.002506669610738754</v>
+        <v>0.003547556989360601</v>
       </c>
       <c r="G40">
-        <v>15843</v>
+        <v>16873</v>
       </c>
       <c r="H40">
-        <v>34690</v>
+        <v>35865</v>
       </c>
       <c r="I40">
-        <v>18847</v>
+        <v>18992</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1647,25 +1647,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.01504305377602577</v>
+        <v>0.01183777902042493</v>
       </c>
       <c r="C41">
-        <v>106404</v>
+        <v>102848</v>
       </c>
       <c r="D41">
-        <v>175212</v>
+        <v>171336</v>
       </c>
       <c r="E41">
-        <v>68808</v>
+        <v>68488</v>
       </c>
       <c r="F41">
-        <v>0.003977485001087189</v>
+        <v>0.002844478993210942</v>
       </c>
       <c r="G41">
-        <v>15555</v>
+        <v>16457</v>
       </c>
       <c r="H41">
-        <v>34547</v>
+        <v>35449</v>
       </c>
       <c r="I41">
         <v>18992</v>
@@ -1676,25 +1676,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.01661938056349754</v>
+        <v>0.007967538025695831</v>
       </c>
       <c r="C42">
-        <v>113428</v>
+        <v>100014</v>
       </c>
       <c r="D42">
-        <v>182284</v>
+        <v>168454</v>
       </c>
       <c r="E42">
-        <v>68856</v>
+        <v>68440</v>
       </c>
       <c r="F42">
-        <v>0.002535536885261536</v>
+        <v>0.002690220950171351</v>
       </c>
       <c r="G42">
-        <v>15779</v>
+        <v>16233</v>
       </c>
       <c r="H42">
-        <v>34771</v>
+        <v>35225</v>
       </c>
       <c r="I42">
         <v>18992</v>
@@ -1705,25 +1705,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.02258477732539177</v>
+        <v>0.01458829798502848</v>
       </c>
       <c r="C43">
-        <v>109692</v>
+        <v>106646</v>
       </c>
       <c r="D43">
-        <v>178740</v>
+        <v>176150</v>
       </c>
       <c r="E43">
-        <v>69048</v>
+        <v>69504</v>
       </c>
       <c r="F43">
-        <v>0.003259357064962387</v>
+        <v>0.003311185981146991</v>
       </c>
       <c r="G43">
-        <v>15683</v>
+        <v>16233</v>
       </c>
       <c r="H43">
-        <v>34675</v>
+        <v>35225</v>
       </c>
       <c r="I43">
         <v>18992</v>
@@ -1734,25 +1734,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0122247077524662</v>
+        <v>0.009200745029374957</v>
       </c>
       <c r="C44">
-        <v>112188</v>
+        <v>107611</v>
       </c>
       <c r="D44">
-        <v>181172</v>
+        <v>175795</v>
       </c>
       <c r="E44">
-        <v>68984</v>
+        <v>68184</v>
       </c>
       <c r="F44">
-        <v>0.00288940966129303</v>
+        <v>0.002610892988741398</v>
       </c>
       <c r="G44">
-        <v>16035</v>
+        <v>16137</v>
       </c>
       <c r="H44">
-        <v>35027</v>
+        <v>35129</v>
       </c>
       <c r="I44">
         <v>18992</v>
@@ -1763,25 +1763,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.02037136629223824</v>
+        <v>0.01400478696450591</v>
       </c>
       <c r="C45">
-        <v>116451</v>
+        <v>99127</v>
       </c>
       <c r="D45">
-        <v>185347</v>
+        <v>166879</v>
       </c>
       <c r="E45">
-        <v>68896</v>
+        <v>67752</v>
       </c>
       <c r="F45">
-        <v>0.003598544746637344</v>
+        <v>0.002966012980323285</v>
       </c>
       <c r="G45">
-        <v>15843</v>
+        <v>15977</v>
       </c>
       <c r="H45">
-        <v>34835</v>
+        <v>34969</v>
       </c>
       <c r="I45">
         <v>18992</v>
@@ -1792,25 +1792,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.01772699132561684</v>
+        <v>0.01317321398528293</v>
       </c>
       <c r="C46">
-        <v>112942</v>
+        <v>105065</v>
       </c>
       <c r="D46">
-        <v>181585</v>
+        <v>174049</v>
       </c>
       <c r="E46">
-        <v>68643</v>
+        <v>68984</v>
       </c>
       <c r="F46">
-        <v>0.002564560621976852</v>
+        <v>0.002727367042098194</v>
       </c>
       <c r="G46">
-        <v>15331</v>
+        <v>16745</v>
       </c>
       <c r="H46">
-        <v>34323</v>
+        <v>35737</v>
       </c>
       <c r="I46">
         <v>18992</v>
@@ -1821,25 +1821,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.01291711628437042</v>
+        <v>0.007492984994314611</v>
       </c>
       <c r="C47">
-        <v>115936</v>
+        <v>100174</v>
       </c>
       <c r="D47">
-        <v>183794</v>
+        <v>167990</v>
       </c>
       <c r="E47">
-        <v>67858</v>
+        <v>67816</v>
       </c>
       <c r="F47">
-        <v>0.003139808773994446</v>
+        <v>0.002726646955125034</v>
       </c>
       <c r="G47">
-        <v>16099</v>
+        <v>16073</v>
       </c>
       <c r="H47">
-        <v>35091</v>
+        <v>35065</v>
       </c>
       <c r="I47">
         <v>18992</v>
@@ -1850,25 +1850,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.02224374189972878</v>
+        <v>0.008425930980592966</v>
       </c>
       <c r="C48">
-        <v>107817</v>
+        <v>100535</v>
       </c>
       <c r="D48">
-        <v>176513</v>
+        <v>168631</v>
       </c>
       <c r="E48">
-        <v>68696</v>
+        <v>68096</v>
       </c>
       <c r="F48">
-        <v>0.002476878464221954</v>
+        <v>0.002825014002155513</v>
       </c>
       <c r="G48">
-        <v>15011</v>
+        <v>16137</v>
       </c>
       <c r="H48">
-        <v>34003</v>
+        <v>35129</v>
       </c>
       <c r="I48">
         <v>18992</v>
@@ -1879,28 +1879,28 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.01128722354769707</v>
+        <v>0.01260605698917061</v>
       </c>
       <c r="C49">
-        <v>111105</v>
+        <v>100056</v>
       </c>
       <c r="D49">
-        <v>179545</v>
+        <v>167920</v>
       </c>
       <c r="E49">
-        <v>68440</v>
+        <v>67864</v>
       </c>
       <c r="F49">
-        <v>0.002874024212360382</v>
+        <v>0.002813461993355304</v>
       </c>
       <c r="G49">
-        <v>15747</v>
+        <v>16457</v>
       </c>
       <c r="H49">
-        <v>34591</v>
+        <v>35449</v>
       </c>
       <c r="I49">
-        <v>18844</v>
+        <v>18992</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1908,28 +1908,28 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.01515529304742813</v>
+        <v>0.0152443969855085</v>
       </c>
       <c r="C50">
-        <v>126396</v>
+        <v>96511</v>
       </c>
       <c r="D50">
-        <v>221028</v>
+        <v>163039</v>
       </c>
       <c r="E50">
-        <v>94632</v>
+        <v>66528</v>
       </c>
       <c r="F50">
-        <v>0.002916153520345688</v>
+        <v>0.003583287994842976</v>
       </c>
       <c r="G50">
-        <v>16291</v>
+        <v>15945</v>
       </c>
       <c r="H50">
-        <v>35283</v>
+        <v>34790</v>
       </c>
       <c r="I50">
-        <v>18992</v>
+        <v>18845</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1937,25 +1937,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.0197753868997097</v>
+        <v>0.7264324179850519</v>
       </c>
       <c r="C51">
-        <v>112187</v>
+        <v>105492</v>
       </c>
       <c r="D51">
-        <v>181675</v>
+        <v>162103</v>
       </c>
       <c r="E51">
-        <v>69488</v>
+        <v>56611</v>
       </c>
       <c r="F51">
-        <v>0.003248177468776703</v>
+        <v>0.002546014031395316</v>
       </c>
       <c r="G51">
-        <v>16003</v>
+        <v>16553</v>
       </c>
       <c r="H51">
-        <v>34995</v>
+        <v>35545</v>
       </c>
       <c r="I51">
         <v>18992</v>
@@ -1966,25 +1966,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.01534508168697357</v>
+        <v>0.01733499101828784</v>
       </c>
       <c r="C52">
-        <v>107091</v>
+        <v>105757</v>
       </c>
       <c r="D52">
-        <v>175387</v>
+        <v>174597</v>
       </c>
       <c r="E52">
-        <v>68296</v>
+        <v>68840</v>
       </c>
       <c r="F52">
-        <v>0.003268375992774963</v>
+        <v>0.004466181970201433</v>
       </c>
       <c r="G52">
-        <v>16035</v>
+        <v>16297</v>
       </c>
       <c r="H52">
-        <v>35027</v>
+        <v>35289</v>
       </c>
       <c r="I52">
         <v>18992</v>
@@ -1995,28 +1995,28 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.01798062399029732</v>
+        <v>0.01006885396782309</v>
       </c>
       <c r="C53">
-        <v>127215</v>
+        <v>96498</v>
       </c>
       <c r="D53">
-        <v>195735</v>
+        <v>162754</v>
       </c>
       <c r="E53">
-        <v>68520</v>
+        <v>66256</v>
       </c>
       <c r="F53">
-        <v>0.003172684460878372</v>
+        <v>0.002509562997147441</v>
       </c>
       <c r="G53">
-        <v>15561</v>
+        <v>16463</v>
       </c>
       <c r="H53">
-        <v>34405</v>
+        <v>35455</v>
       </c>
       <c r="I53">
-        <v>18844</v>
+        <v>18992</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2024,25 +2024,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.01260159909725189</v>
+        <v>0.01063935999991372</v>
       </c>
       <c r="C54">
-        <v>109108</v>
+        <v>98285</v>
       </c>
       <c r="D54">
-        <v>177860</v>
+        <v>164845</v>
       </c>
       <c r="E54">
-        <v>68752</v>
+        <v>66560</v>
       </c>
       <c r="F54">
-        <v>0.002832449972629547</v>
+        <v>0.002904761990066618</v>
       </c>
       <c r="G54">
-        <v>15747</v>
+        <v>15945</v>
       </c>
       <c r="H54">
-        <v>34739</v>
+        <v>34937</v>
       </c>
       <c r="I54">
         <v>18992</v>
@@ -2053,28 +2053,28 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.01580118015408516</v>
+        <v>0.01482460397528484</v>
       </c>
       <c r="C55">
-        <v>104296</v>
+        <v>98106</v>
       </c>
       <c r="D55">
-        <v>171968</v>
+        <v>165274</v>
       </c>
       <c r="E55">
-        <v>67672</v>
+        <v>67168</v>
       </c>
       <c r="F55">
-        <v>0.002437349408864975</v>
+        <v>0.003084285999648273</v>
       </c>
       <c r="G55">
-        <v>15491</v>
+        <v>16449</v>
       </c>
       <c r="H55">
-        <v>34194</v>
+        <v>35269</v>
       </c>
       <c r="I55">
-        <v>18703</v>
+        <v>18820</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2082,28 +2082,28 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.01692609488964081</v>
+        <v>0.0126038949820213</v>
       </c>
       <c r="C56">
-        <v>114835</v>
+        <v>105824</v>
       </c>
       <c r="D56">
-        <v>182883</v>
+        <v>175104</v>
       </c>
       <c r="E56">
-        <v>68048</v>
+        <v>69280</v>
       </c>
       <c r="F56">
-        <v>0.00513775646686554</v>
+        <v>0.002732552995439619</v>
       </c>
       <c r="G56">
-        <v>15651</v>
+        <v>16777</v>
       </c>
       <c r="H56">
-        <v>34497</v>
+        <v>35769</v>
       </c>
       <c r="I56">
-        <v>18846</v>
+        <v>18992</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2111,25 +2111,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.02256388589739799</v>
+        <v>0.01122425199719146</v>
       </c>
       <c r="C57">
-        <v>104424</v>
+        <v>100016</v>
       </c>
       <c r="D57">
-        <v>172328</v>
+        <v>168072</v>
       </c>
       <c r="E57">
-        <v>67904</v>
+        <v>68056</v>
       </c>
       <c r="F57">
-        <v>0.002594355493783951</v>
+        <v>0.002842689980752766</v>
       </c>
       <c r="G57">
-        <v>15555</v>
+        <v>16329</v>
       </c>
       <c r="H57">
-        <v>34547</v>
+        <v>35321</v>
       </c>
       <c r="I57">
         <v>18992</v>
@@ -2140,25 +2140,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.01553288474678993</v>
+        <v>0.01149489096133038</v>
       </c>
       <c r="C58">
-        <v>111858</v>
+        <v>102254</v>
       </c>
       <c r="D58">
-        <v>181042</v>
+        <v>170766</v>
       </c>
       <c r="E58">
-        <v>69184</v>
+        <v>68512</v>
       </c>
       <c r="F58">
-        <v>0.002910472452640533</v>
+        <v>0.003756613994482905</v>
       </c>
       <c r="G58">
-        <v>15523</v>
+        <v>16297</v>
       </c>
       <c r="H58">
-        <v>34515</v>
+        <v>35289</v>
       </c>
       <c r="I58">
         <v>18992</v>
@@ -2169,25 +2169,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.01040076836943626</v>
+        <v>0.008960367005784065</v>
       </c>
       <c r="C59">
-        <v>109899</v>
+        <v>101448</v>
       </c>
       <c r="D59">
-        <v>179579</v>
+        <v>169864</v>
       </c>
       <c r="E59">
-        <v>69680</v>
+        <v>68416</v>
       </c>
       <c r="F59">
-        <v>0.002526402473449707</v>
+        <v>0.002717142051551491</v>
       </c>
       <c r="G59">
-        <v>15331</v>
+        <v>16169</v>
       </c>
       <c r="H59">
-        <v>34323</v>
+        <v>35161</v>
       </c>
       <c r="I59">
         <v>18992</v>
@@ -2198,28 +2198,28 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.014155562967062</v>
+        <v>0.0104016829864122</v>
       </c>
       <c r="C60">
-        <v>111404</v>
+        <v>103139</v>
       </c>
       <c r="D60">
-        <v>180524</v>
+        <v>171459</v>
       </c>
       <c r="E60">
-        <v>69120</v>
+        <v>68320</v>
       </c>
       <c r="F60">
-        <v>0.002571117132902145</v>
+        <v>0.005332160973921418</v>
       </c>
       <c r="G60">
-        <v>15491</v>
+        <v>16297</v>
       </c>
       <c r="H60">
-        <v>34483</v>
+        <v>35143</v>
       </c>
       <c r="I60">
-        <v>18992</v>
+        <v>18846</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2227,28 +2227,28 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.01072908565402031</v>
+        <v>0.009377673966810107</v>
       </c>
       <c r="C61">
-        <v>108971</v>
+        <v>97905</v>
       </c>
       <c r="D61">
-        <v>176715</v>
+        <v>164697</v>
       </c>
       <c r="E61">
-        <v>67744</v>
+        <v>66792</v>
       </c>
       <c r="F61">
-        <v>0.002848543226718903</v>
+        <v>0.005145639006514102</v>
       </c>
       <c r="G61">
-        <v>15779</v>
+        <v>16489</v>
       </c>
       <c r="H61">
-        <v>34625</v>
+        <v>35333</v>
       </c>
       <c r="I61">
-        <v>18846</v>
+        <v>18844</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2256,28 +2256,28 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.01826105266809464</v>
+        <v>0.008334025042131543</v>
       </c>
       <c r="C62">
-        <v>107297</v>
+        <v>94906</v>
       </c>
       <c r="D62">
-        <v>175609</v>
+        <v>160962</v>
       </c>
       <c r="E62">
-        <v>68312</v>
+        <v>66056</v>
       </c>
       <c r="F62">
-        <v>0.002391714602708817</v>
+        <v>0.003641730989329517</v>
       </c>
       <c r="G62">
-        <v>15363</v>
+        <v>16169</v>
       </c>
       <c r="H62">
-        <v>34207</v>
+        <v>35161</v>
       </c>
       <c r="I62">
-        <v>18844</v>
+        <v>18992</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2285,28 +2285,28 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.01536773890256882</v>
+        <v>0.008131965005304664</v>
       </c>
       <c r="C63">
-        <v>106398</v>
+        <v>101174</v>
       </c>
       <c r="D63">
-        <v>175678</v>
+        <v>169222</v>
       </c>
       <c r="E63">
-        <v>69280</v>
+        <v>68048</v>
       </c>
       <c r="F63">
-        <v>0.00244155153632164</v>
+        <v>0.007826613029465079</v>
       </c>
       <c r="G63">
-        <v>15651</v>
+        <v>16201</v>
       </c>
       <c r="H63">
-        <v>34643</v>
+        <v>35045</v>
       </c>
       <c r="I63">
-        <v>18992</v>
+        <v>18844</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2314,25 +2314,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.01770652458071709</v>
+        <v>0.008142117003444582</v>
       </c>
       <c r="C64">
-        <v>112564</v>
+        <v>104332</v>
       </c>
       <c r="D64">
-        <v>181428</v>
+        <v>173252</v>
       </c>
       <c r="E64">
-        <v>68864</v>
+        <v>68920</v>
       </c>
       <c r="F64">
-        <v>0.002660103142261505</v>
+        <v>0.002873630030080676</v>
       </c>
       <c r="G64">
-        <v>15587</v>
+        <v>16521</v>
       </c>
       <c r="H64">
-        <v>34579</v>
+        <v>35513</v>
       </c>
       <c r="I64">
         <v>18992</v>
@@ -2343,28 +2343,28 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.01049413904547691</v>
+        <v>0.007237447018269449</v>
       </c>
       <c r="C65">
-        <v>106534</v>
+        <v>95759</v>
       </c>
       <c r="D65">
-        <v>174806</v>
+        <v>161407</v>
       </c>
       <c r="E65">
-        <v>68272</v>
+        <v>65648</v>
       </c>
       <c r="F65">
-        <v>0.004423007369041443</v>
+        <v>0.002400296973064542</v>
       </c>
       <c r="G65">
-        <v>14947</v>
+        <v>15977</v>
       </c>
       <c r="H65">
-        <v>33794</v>
+        <v>34821</v>
       </c>
       <c r="I65">
-        <v>18847</v>
+        <v>18844</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2372,28 +2372,28 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.01651075109839439</v>
+        <v>0.01510799396783113</v>
       </c>
       <c r="C66">
-        <v>105563</v>
+        <v>100006</v>
       </c>
       <c r="D66">
-        <v>174139</v>
+        <v>168350</v>
       </c>
       <c r="E66">
-        <v>68576</v>
+        <v>68344</v>
       </c>
       <c r="F66">
-        <v>0.002576541155576706</v>
+        <v>0.002663111023139209</v>
       </c>
       <c r="G66">
-        <v>15395</v>
+        <v>15881</v>
       </c>
       <c r="H66">
-        <v>34242</v>
+        <v>34727</v>
       </c>
       <c r="I66">
-        <v>18847</v>
+        <v>18846</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2401,25 +2401,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0164078064262867</v>
+        <v>0.007282336999196559</v>
       </c>
       <c r="C67">
-        <v>108318</v>
+        <v>102874</v>
       </c>
       <c r="D67">
-        <v>177094</v>
+        <v>171514</v>
       </c>
       <c r="E67">
-        <v>68776</v>
+        <v>68640</v>
       </c>
       <c r="F67">
-        <v>0.0026707723736763</v>
+        <v>0.002718529023695737</v>
       </c>
       <c r="G67">
-        <v>15299</v>
+        <v>16425</v>
       </c>
       <c r="H67">
-        <v>34291</v>
+        <v>35417</v>
       </c>
       <c r="I67">
         <v>18992</v>
@@ -2430,28 +2430,28 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.01337725669145584</v>
+        <v>0.01391609798884019</v>
       </c>
       <c r="C68">
-        <v>109659</v>
+        <v>101634</v>
       </c>
       <c r="D68">
-        <v>178403</v>
+        <v>169802</v>
       </c>
       <c r="E68">
-        <v>68744</v>
+        <v>68168</v>
       </c>
       <c r="F68">
-        <v>0.002884473651647568</v>
+        <v>0.00343210797291249</v>
       </c>
       <c r="G68">
-        <v>15907</v>
+        <v>16585</v>
       </c>
       <c r="H68">
-        <v>34752</v>
+        <v>35429</v>
       </c>
       <c r="I68">
-        <v>18845</v>
+        <v>18844</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2459,25 +2459,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.01861827448010445</v>
+        <v>0.01391139801125973</v>
       </c>
       <c r="C69">
-        <v>111291</v>
+        <v>104662</v>
       </c>
       <c r="D69">
-        <v>180603</v>
+        <v>173526</v>
       </c>
       <c r="E69">
-        <v>69312</v>
+        <v>68864</v>
       </c>
       <c r="F69">
-        <v>0.003973577171564102</v>
+        <v>0.004057106038089842</v>
       </c>
       <c r="G69">
-        <v>15971</v>
+        <v>16649</v>
       </c>
       <c r="H69">
-        <v>34963</v>
+        <v>35641</v>
       </c>
       <c r="I69">
         <v>18992</v>
@@ -2488,25 +2488,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.01600321009755135</v>
+        <v>0.01448340702336282</v>
       </c>
       <c r="C70">
-        <v>108625</v>
+        <v>103672</v>
       </c>
       <c r="D70">
-        <v>177609</v>
+        <v>172344</v>
       </c>
       <c r="E70">
-        <v>68984</v>
+        <v>68672</v>
       </c>
       <c r="F70">
-        <v>0.002769511193037033</v>
+        <v>0.002952333015855402</v>
       </c>
       <c r="G70">
-        <v>15619</v>
+        <v>16201</v>
       </c>
       <c r="H70">
-        <v>34611</v>
+        <v>35193</v>
       </c>
       <c r="I70">
         <v>18992</v>
@@ -2517,25 +2517,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.02113259211182594</v>
+        <v>0.01457671803655103</v>
       </c>
       <c r="C71">
-        <v>252703</v>
+        <v>99653</v>
       </c>
       <c r="D71">
-        <v>314078</v>
+        <v>167461</v>
       </c>
       <c r="E71">
-        <v>61375</v>
+        <v>67808</v>
       </c>
       <c r="F71">
-        <v>0.00285957008600235</v>
+        <v>0.002685707004275173</v>
       </c>
       <c r="G71">
-        <v>15619</v>
+        <v>16297</v>
       </c>
       <c r="H71">
-        <v>34611</v>
+        <v>35289</v>
       </c>
       <c r="I71">
         <v>18992</v>
@@ -2546,25 +2546,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0154266282916069</v>
+        <v>0.009273064031731337</v>
       </c>
       <c r="C72">
-        <v>111299</v>
+        <v>99475</v>
       </c>
       <c r="D72">
-        <v>180355</v>
+        <v>167347</v>
       </c>
       <c r="E72">
-        <v>69056</v>
+        <v>67872</v>
       </c>
       <c r="F72">
-        <v>0.002669487148523331</v>
+        <v>0.005171260971110314</v>
       </c>
       <c r="G72">
-        <v>15875</v>
+        <v>16553</v>
       </c>
       <c r="H72">
-        <v>34867</v>
+        <v>35545</v>
       </c>
       <c r="I72">
         <v>18992</v>
@@ -2575,25 +2575,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.02697055414319038</v>
+        <v>0.0114657289814204</v>
       </c>
       <c r="C73">
-        <v>188150</v>
+        <v>102805</v>
       </c>
       <c r="D73">
-        <v>191009</v>
+        <v>171325</v>
       </c>
       <c r="E73">
-        <v>2859</v>
+        <v>68520</v>
       </c>
       <c r="F73">
-        <v>0.00276058167219162</v>
+        <v>0.003543993982020766</v>
       </c>
       <c r="G73">
-        <v>15267</v>
+        <v>16425</v>
       </c>
       <c r="H73">
-        <v>34259</v>
+        <v>35417</v>
       </c>
       <c r="I73">
         <v>18992</v>
@@ -2604,25 +2604,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.01825449988245964</v>
+        <v>0.01118294498883188</v>
       </c>
       <c r="C74">
-        <v>116125</v>
+        <v>97724</v>
       </c>
       <c r="D74">
-        <v>185461</v>
+        <v>165444</v>
       </c>
       <c r="E74">
-        <v>69336</v>
+        <v>67720</v>
       </c>
       <c r="F74">
-        <v>0.003849919885396957</v>
+        <v>0.008681416977196932</v>
       </c>
       <c r="G74">
-        <v>15747</v>
+        <v>16265</v>
       </c>
       <c r="H74">
-        <v>34739</v>
+        <v>35257</v>
       </c>
       <c r="I74">
         <v>18992</v>
@@ -2633,25 +2633,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.01138456165790558</v>
+        <v>0.0131734519964084</v>
       </c>
       <c r="C75">
-        <v>110773</v>
+        <v>96234</v>
       </c>
       <c r="D75">
-        <v>179906</v>
+        <v>162410</v>
       </c>
       <c r="E75">
-        <v>69133</v>
+        <v>66176</v>
       </c>
       <c r="F75">
-        <v>0.002578284591436386</v>
+        <v>0.002823317016009241</v>
       </c>
       <c r="G75">
-        <v>15811</v>
+        <v>16489</v>
       </c>
       <c r="H75">
-        <v>34803</v>
+        <v>35481</v>
       </c>
       <c r="I75">
         <v>18992</v>
@@ -2662,28 +2662,28 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.02060528472065926</v>
+        <v>0.009057123039383441</v>
       </c>
       <c r="C76">
-        <v>108319</v>
+        <v>112070</v>
       </c>
       <c r="D76">
-        <v>176215</v>
+        <v>182382</v>
       </c>
       <c r="E76">
-        <v>67896</v>
+        <v>70312</v>
       </c>
       <c r="F76">
-        <v>0.003193788230419159</v>
+        <v>0.003274365968536586</v>
       </c>
       <c r="G76">
-        <v>15683</v>
+        <v>16809</v>
       </c>
       <c r="H76">
-        <v>34529</v>
+        <v>35801</v>
       </c>
       <c r="I76">
-        <v>18846</v>
+        <v>18992</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2691,28 +2691,28 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.01373773440718651</v>
+        <v>0.01380682096350938</v>
       </c>
       <c r="C77">
-        <v>107787</v>
+        <v>103630</v>
       </c>
       <c r="D77">
-        <v>175659</v>
+        <v>171454</v>
       </c>
       <c r="E77">
-        <v>67872</v>
+        <v>67824</v>
       </c>
       <c r="F77">
-        <v>0.006125878542661667</v>
+        <v>0.002746325975749642</v>
       </c>
       <c r="G77">
-        <v>15331</v>
+        <v>16489</v>
       </c>
       <c r="H77">
-        <v>34175</v>
+        <v>35481</v>
       </c>
       <c r="I77">
-        <v>18844</v>
+        <v>18992</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2720,28 +2720,28 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.01189708337187767</v>
+        <v>0.0127584440051578</v>
       </c>
       <c r="C78">
-        <v>113834</v>
+        <v>101366</v>
       </c>
       <c r="D78">
-        <v>182986</v>
+        <v>169558</v>
       </c>
       <c r="E78">
-        <v>69152</v>
+        <v>68192</v>
       </c>
       <c r="F78">
-        <v>0.002699710428714752</v>
+        <v>0.003375572036020458</v>
       </c>
       <c r="G78">
-        <v>15907</v>
+        <v>15689</v>
       </c>
       <c r="H78">
-        <v>34899</v>
+        <v>34533</v>
       </c>
       <c r="I78">
-        <v>18992</v>
+        <v>18844</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2749,28 +2749,28 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.01493875309824944</v>
+        <v>0.01383829599944875</v>
       </c>
       <c r="C79">
-        <v>109676</v>
+        <v>115670</v>
       </c>
       <c r="D79">
-        <v>178164</v>
+        <v>182422</v>
       </c>
       <c r="E79">
-        <v>68488</v>
+        <v>66752</v>
       </c>
       <c r="F79">
-        <v>0.003637433052062988</v>
+        <v>0.002603021974209696</v>
       </c>
       <c r="G79">
-        <v>15587</v>
+        <v>16169</v>
       </c>
       <c r="H79">
-        <v>34579</v>
+        <v>35013</v>
       </c>
       <c r="I79">
-        <v>18992</v>
+        <v>18844</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2778,28 +2778,28 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0153922475874424</v>
+        <v>0.009234919969458133</v>
       </c>
       <c r="C80">
-        <v>108523</v>
+        <v>100696</v>
       </c>
       <c r="D80">
-        <v>176483</v>
+        <v>168024</v>
       </c>
       <c r="E80">
-        <v>67960</v>
+        <v>67328</v>
       </c>
       <c r="F80">
-        <v>0.003201562911272049</v>
+        <v>0.003842606034595519</v>
       </c>
       <c r="G80">
-        <v>15491</v>
+        <v>16393</v>
       </c>
       <c r="H80">
-        <v>34338</v>
+        <v>35239</v>
       </c>
       <c r="I80">
-        <v>18847</v>
+        <v>18846</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2807,25 +2807,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.01107796281576157</v>
+        <v>0.009627458988688886</v>
       </c>
       <c r="C81">
-        <v>107675</v>
+        <v>102462</v>
       </c>
       <c r="D81">
-        <v>176435</v>
+        <v>170998</v>
       </c>
       <c r="E81">
-        <v>68760</v>
+        <v>68536</v>
       </c>
       <c r="F81">
-        <v>0.004717305302619934</v>
+        <v>0.0027056880062446</v>
       </c>
       <c r="G81">
-        <v>15971</v>
+        <v>16489</v>
       </c>
       <c r="H81">
-        <v>34963</v>
+        <v>35481</v>
       </c>
       <c r="I81">
         <v>18992</v>
@@ -2836,28 +2836,28 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.01424346119165421</v>
+        <v>0.007745996990706772</v>
       </c>
       <c r="C82">
-        <v>109260</v>
+        <v>98229</v>
       </c>
       <c r="D82">
-        <v>178092</v>
+        <v>164789</v>
       </c>
       <c r="E82">
-        <v>68832</v>
+        <v>66560</v>
       </c>
       <c r="F82">
-        <v>0.002982795238494873</v>
+        <v>0.003688558004796505</v>
       </c>
       <c r="G82">
-        <v>15683</v>
+        <v>15497</v>
       </c>
       <c r="H82">
-        <v>34675</v>
+        <v>34341</v>
       </c>
       <c r="I82">
-        <v>18992</v>
+        <v>18844</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2865,28 +2865,28 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.01548131927847862</v>
+        <v>0.01829615596216172</v>
       </c>
       <c r="C83">
-        <v>106546</v>
+        <v>97086</v>
       </c>
       <c r="D83">
-        <v>175274</v>
+        <v>163686</v>
       </c>
       <c r="E83">
-        <v>68728</v>
+        <v>66600</v>
       </c>
       <c r="F83">
-        <v>0.002512309700250626</v>
+        <v>0.005906325997784734</v>
       </c>
       <c r="G83">
-        <v>15491</v>
+        <v>16169</v>
       </c>
       <c r="H83">
-        <v>34483</v>
+        <v>35014</v>
       </c>
       <c r="I83">
-        <v>18992</v>
+        <v>18845</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2894,28 +2894,28 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.01096441224217415</v>
+        <v>0.01501731399912387</v>
       </c>
       <c r="C84">
-        <v>111574</v>
+        <v>95713</v>
       </c>
       <c r="D84">
-        <v>178770</v>
+        <v>162025</v>
       </c>
       <c r="E84">
-        <v>67196</v>
+        <v>66312</v>
       </c>
       <c r="F84">
-        <v>0.002669647336006165</v>
+        <v>0.003441470966208726</v>
       </c>
       <c r="G84">
-        <v>15707</v>
+        <v>16489</v>
       </c>
       <c r="H84">
-        <v>34529</v>
+        <v>35333</v>
       </c>
       <c r="I84">
-        <v>18822</v>
+        <v>18844</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2923,28 +2923,28 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.0130416676402092</v>
+        <v>0.008972322044428438</v>
       </c>
       <c r="C85">
-        <v>112594</v>
+        <v>105866</v>
       </c>
       <c r="D85">
-        <v>182242</v>
+        <v>175354</v>
       </c>
       <c r="E85">
-        <v>69648</v>
+        <v>69488</v>
       </c>
       <c r="F85">
-        <v>0.002749979496002197</v>
+        <v>0.004713553003966808</v>
       </c>
       <c r="G85">
-        <v>15395</v>
+        <v>16681</v>
       </c>
       <c r="H85">
-        <v>34387</v>
+        <v>35529</v>
       </c>
       <c r="I85">
-        <v>18992</v>
+        <v>18848</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2952,28 +2952,28 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.0173177607357502</v>
+        <v>0.01134028797969222</v>
       </c>
       <c r="C86">
-        <v>110877</v>
+        <v>97625</v>
       </c>
       <c r="D86">
-        <v>180581</v>
+        <v>165473</v>
       </c>
       <c r="E86">
-        <v>69704</v>
+        <v>67848</v>
       </c>
       <c r="F86">
-        <v>0.002757750451564789</v>
+        <v>0.002631610026583076</v>
       </c>
       <c r="G86">
-        <v>15483</v>
+        <v>16233</v>
       </c>
       <c r="H86">
-        <v>34451</v>
+        <v>35225</v>
       </c>
       <c r="I86">
-        <v>18968</v>
+        <v>18992</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2981,28 +2981,28 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.01199500262737274</v>
+        <v>0.007307883992325515</v>
       </c>
       <c r="C87">
-        <v>111235</v>
+        <v>96264</v>
       </c>
       <c r="D87">
-        <v>179875</v>
+        <v>162248</v>
       </c>
       <c r="E87">
-        <v>68640</v>
+        <v>65984</v>
       </c>
       <c r="F87">
-        <v>0.002655338495969772</v>
+        <v>0.002495452004950494</v>
       </c>
       <c r="G87">
-        <v>15523</v>
+        <v>16041</v>
       </c>
       <c r="H87">
-        <v>34515</v>
+        <v>34887</v>
       </c>
       <c r="I87">
-        <v>18992</v>
+        <v>18846</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3010,28 +3010,28 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.01734845340251923</v>
+        <v>0.01552025199634954</v>
       </c>
       <c r="C88">
-        <v>116754</v>
+        <v>98703</v>
       </c>
       <c r="D88">
-        <v>186426</v>
+        <v>165431</v>
       </c>
       <c r="E88">
-        <v>69672</v>
+        <v>66728</v>
       </c>
       <c r="F88">
-        <v>0.004625532776117325</v>
+        <v>0.002532192971557379</v>
       </c>
       <c r="G88">
-        <v>15907</v>
+        <v>16105</v>
       </c>
       <c r="H88">
-        <v>34899</v>
+        <v>34950</v>
       </c>
       <c r="I88">
-        <v>18992</v>
+        <v>18845</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3039,25 +3039,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.01216134056448936</v>
+        <v>0.008947858994361013</v>
       </c>
       <c r="C89">
-        <v>113515</v>
+        <v>96232</v>
       </c>
       <c r="D89">
-        <v>182726</v>
+        <v>162344</v>
       </c>
       <c r="E89">
-        <v>69211</v>
+        <v>66112</v>
       </c>
       <c r="F89">
-        <v>0.002931099385023117</v>
+        <v>0.002615372010041028</v>
       </c>
       <c r="G89">
-        <v>16227</v>
+        <v>16489</v>
       </c>
       <c r="H89">
-        <v>35219</v>
+        <v>35481</v>
       </c>
       <c r="I89">
         <v>18992</v>
@@ -3068,28 +3068,28 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.02097789943218231</v>
+        <v>0.01188620500033721</v>
       </c>
       <c r="C90">
-        <v>109543</v>
+        <v>99221</v>
       </c>
       <c r="D90">
-        <v>177735</v>
+        <v>166941</v>
       </c>
       <c r="E90">
-        <v>68192</v>
+        <v>67720</v>
       </c>
       <c r="F90">
-        <v>0.002650242298841476</v>
+        <v>0.00338265101891011</v>
       </c>
       <c r="G90">
-        <v>15427</v>
+        <v>16321</v>
       </c>
       <c r="H90">
-        <v>34271</v>
+        <v>35289</v>
       </c>
       <c r="I90">
-        <v>18844</v>
+        <v>18968</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3097,25 +3097,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.02197608351707458</v>
+        <v>0.00736836000578478</v>
       </c>
       <c r="C91">
-        <v>111010</v>
+        <v>93686</v>
       </c>
       <c r="D91">
-        <v>180322</v>
+        <v>159262</v>
       </c>
       <c r="E91">
-        <v>69312</v>
+        <v>65576</v>
       </c>
       <c r="F91">
-        <v>0.002645045518875122</v>
+        <v>0.00308704498456791</v>
       </c>
       <c r="G91">
-        <v>15811</v>
+        <v>16393</v>
       </c>
       <c r="H91">
-        <v>34803</v>
+        <v>35385</v>
       </c>
       <c r="I91">
         <v>18992</v>
@@ -3126,28 +3126,28 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.01359846442937851</v>
+        <v>0.006880985980387777</v>
       </c>
       <c r="C92">
-        <v>110776</v>
+        <v>100081</v>
       </c>
       <c r="D92">
-        <v>179643</v>
+        <v>167833</v>
       </c>
       <c r="E92">
-        <v>68867</v>
+        <v>67752</v>
       </c>
       <c r="F92">
-        <v>0.002910912036895752</v>
+        <v>0.002574369020294398</v>
       </c>
       <c r="G92">
-        <v>16227</v>
+        <v>16521</v>
       </c>
       <c r="H92">
-        <v>35219</v>
+        <v>35368</v>
       </c>
       <c r="I92">
-        <v>18992</v>
+        <v>18847</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3155,25 +3155,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.01063487306237221</v>
+        <v>0.0115327900275588</v>
       </c>
       <c r="C93">
-        <v>106582</v>
+        <v>105352</v>
       </c>
       <c r="D93">
-        <v>175422</v>
+        <v>174576</v>
       </c>
       <c r="E93">
-        <v>68840</v>
+        <v>69224</v>
       </c>
       <c r="F93">
-        <v>0.003810606896877289</v>
+        <v>0.00284032995114103</v>
       </c>
       <c r="G93">
-        <v>15587</v>
+        <v>16361</v>
       </c>
       <c r="H93">
-        <v>34579</v>
+        <v>35353</v>
       </c>
       <c r="I93">
         <v>18992</v>
@@ -3184,25 +3184,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.01103086024522781</v>
+        <v>0.01011407503392547</v>
       </c>
       <c r="C94">
-        <v>112202</v>
+        <v>108566</v>
       </c>
       <c r="D94">
-        <v>180946</v>
+        <v>177462</v>
       </c>
       <c r="E94">
-        <v>68744</v>
+        <v>68896</v>
       </c>
       <c r="F94">
-        <v>0.002816785126924515</v>
+        <v>0.003195372992195189</v>
       </c>
       <c r="G94">
-        <v>15843</v>
+        <v>16873</v>
       </c>
       <c r="H94">
-        <v>34835</v>
+        <v>35865</v>
       </c>
       <c r="I94">
         <v>18992</v>
@@ -3213,25 +3213,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.01231406256556511</v>
+        <v>0.01047274301527068</v>
       </c>
       <c r="C95">
-        <v>106452</v>
+        <v>96744</v>
       </c>
       <c r="D95">
-        <v>175164</v>
+        <v>163208</v>
       </c>
       <c r="E95">
-        <v>68712</v>
+        <v>66464</v>
       </c>
       <c r="F95">
-        <v>0.002927947789430618</v>
+        <v>0.008331479970365763</v>
       </c>
       <c r="G95">
-        <v>15683</v>
+        <v>16137</v>
       </c>
       <c r="H95">
-        <v>34675</v>
+        <v>35129</v>
       </c>
       <c r="I95">
         <v>18992</v>
@@ -3242,28 +3242,28 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.02165195718407631</v>
+        <v>0.006343727000057697</v>
       </c>
       <c r="C96">
-        <v>106737</v>
+        <v>99440</v>
       </c>
       <c r="D96">
-        <v>175233</v>
+        <v>167184</v>
       </c>
       <c r="E96">
-        <v>68496</v>
+        <v>67744</v>
       </c>
       <c r="F96">
-        <v>0.002755578607320786</v>
+        <v>0.002512603008653969</v>
       </c>
       <c r="G96">
-        <v>15715</v>
+        <v>16009</v>
       </c>
       <c r="H96">
-        <v>34707</v>
+        <v>34853</v>
       </c>
       <c r="I96">
-        <v>18992</v>
+        <v>18844</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3271,28 +3271,28 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.02143888175487518</v>
+        <v>0.04895756900077686</v>
       </c>
       <c r="C97">
-        <v>115132</v>
+        <v>93083</v>
       </c>
       <c r="D97">
-        <v>183940</v>
+        <v>160931</v>
       </c>
       <c r="E97">
-        <v>68808</v>
+        <v>67848</v>
       </c>
       <c r="F97">
-        <v>0.0039854496717453</v>
+        <v>0.003149164956994355</v>
       </c>
       <c r="G97">
-        <v>15779</v>
+        <v>16201</v>
       </c>
       <c r="H97">
-        <v>34626</v>
+        <v>35049</v>
       </c>
       <c r="I97">
-        <v>18847</v>
+        <v>18848</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3300,28 +3300,28 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.01187312975525856</v>
+        <v>0.01359346299432218</v>
       </c>
       <c r="C98">
-        <v>117795</v>
+        <v>98979</v>
       </c>
       <c r="D98">
-        <v>186443</v>
+        <v>166430</v>
       </c>
       <c r="E98">
-        <v>68648</v>
+        <v>67451</v>
       </c>
       <c r="F98">
-        <v>0.003562096506357193</v>
+        <v>0.00300877500558272</v>
       </c>
       <c r="G98">
-        <v>15875</v>
+        <v>16329</v>
       </c>
       <c r="H98">
-        <v>34867</v>
+        <v>35171</v>
       </c>
       <c r="I98">
-        <v>18992</v>
+        <v>18842</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3329,25 +3329,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.0113641545176506</v>
+        <v>0.01224661897867918</v>
       </c>
       <c r="C99">
-        <v>110848</v>
+        <v>98432</v>
       </c>
       <c r="D99">
-        <v>179616</v>
+        <v>166424</v>
       </c>
       <c r="E99">
-        <v>68768</v>
+        <v>67992</v>
       </c>
       <c r="F99">
-        <v>0.006049942225217819</v>
+        <v>0.002772069012280554</v>
       </c>
       <c r="G99">
-        <v>15139</v>
+        <v>16393</v>
       </c>
       <c r="H99">
-        <v>34131</v>
+        <v>35385</v>
       </c>
       <c r="I99">
         <v>18992</v>
@@ -3358,25 +3358,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.02502615749835968</v>
+        <v>0.01299429300706834</v>
       </c>
       <c r="C100">
-        <v>109692</v>
+        <v>101655</v>
       </c>
       <c r="D100">
-        <v>178388</v>
+        <v>169799</v>
       </c>
       <c r="E100">
-        <v>68696</v>
+        <v>68144</v>
       </c>
       <c r="F100">
-        <v>0.002631805837154388</v>
+        <v>0.002675411989912391</v>
       </c>
       <c r="G100">
-        <v>15779</v>
+        <v>16201</v>
       </c>
       <c r="H100">
-        <v>34771</v>
+        <v>35193</v>
       </c>
       <c r="I100">
         <v>18992</v>
@@ -3387,25 +3387,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.0176999568939209</v>
+        <v>0.01597712904913351</v>
       </c>
       <c r="C101">
-        <v>109152</v>
+        <v>99917</v>
       </c>
       <c r="D101">
-        <v>177912</v>
+        <v>167885</v>
       </c>
       <c r="E101">
-        <v>68760</v>
+        <v>67968</v>
       </c>
       <c r="F101">
-        <v>0.002600815147161484</v>
+        <v>0.002867694012820721</v>
       </c>
       <c r="G101">
-        <v>15747</v>
+        <v>16521</v>
       </c>
       <c r="H101">
-        <v>34739</v>
+        <v>35513</v>
       </c>
       <c r="I101">
         <v>18992</v>
